--- a/reverseprimer-v3_32.xlsx
+++ b/reverseprimer-v3_32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_32" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2977-CGAGGTAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAGGTAGATGTCTCGTGGGCTCGG</t>
+    <t>R2977-ATCCAACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAACTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2978-ACTCCTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCTAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2978-GAACACTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2979-TAGATGACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATGACCAGTCTCGTGGGCTCGG</t>
+    <t>R2979-CAGACCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGACCTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2980-GTCGAGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGAGTGATGTCTCGTGGGCTCGG</t>
+    <t>R2980-CGACTAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACTAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2981-CCTCTAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCTAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2981-ATCACCACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACCACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2982-ATCTGTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGTCACTGTCTCGTGGGCTCGG</t>
+    <t>R2982-TAGATCCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATCCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2983-GATCACTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCACTCGAGTCTCGTGGGCTCGG</t>
+    <t>R2983-AGTCGAAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGAAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2984-TCAGAACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACTAGGTCTCGTGGGCTCGG</t>
+    <t>R2984-TGAACCACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACCACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2985-TGAGCACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGCACCAAGTCTCGTGGGCTCGG</t>
+    <t>R2985-ACACTACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2986-TACTGATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGATGAGGTCTCGTGGGCTCGG</t>
+    <t>R2986-TCTCTCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2987-ACCTGATGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGATGAAGTCTCGTGGGCTCGG</t>
+    <t>R2987-TGGACATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2988-GAGTGATCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGATCGAGTCTCGTGGGCTCGG</t>
+    <t>R2988-AGGTGTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2989-ACAACAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACAGTGCGTCTCGTGGGCTCGG</t>
+    <t>R2989-ATGGAAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGAAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2990-GATGACACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGACACGTGTCTCGTGGGCTCGG</t>
+    <t>R2990-GTGGAACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGAACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2991-ACCTGAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGAAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2991-CATGCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGCTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2992-AGTGCTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTCCATGTCTCGTGGGCTCGG</t>
+    <t>R2992-ACATGTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2993-ACTAGGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGGAACGGTCTCGTGGGCTCGG</t>
+    <t>R2993-CAAGTGAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2994-CATCGTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R2994-CTACGTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2995-CGAACCACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACCACATGTCTCGTGGGCTCGG</t>
+    <t>R2995-TCTGAGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2996-TGCTGACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTGACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2996-GCAAGTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2997-AGACAGGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACAGGTAGGTCTCGTGGGCTCGG</t>
+    <t>R2997-TCAGACTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGACTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2998-GAACTCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTCTGCTGTCTCGTGGGCTCGG</t>
+    <t>R2998-ATGCACAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCACAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2999-TAGTTCTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTTCTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2999-AGAACGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R3000-GCTAGTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTTGGAGTCTCGTGGGCTCGG</t>
+    <t>R3000-CTGCTTCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTCGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R3001-GAACAAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAAGTCCGTCTCGTGGGCTCGG</t>
+    <t>R3001-CACCTTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACCTTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R3002-ATCTGACGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGACGAGGTCTCGTGGGCTCGG</t>
+    <t>R3002-AGCTTGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R3003-TCAGTAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3003-CTCGTTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R3004-ATCCTCTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTCTCCAGTCTCGTGGGCTCGG</t>
+    <t>R3004-ACGTCAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCAAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R3005-CTCTTGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTTGAACAGTCTCGTGGGCTCGG</t>
+    <t>R3005-CGTCACAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCACAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R3006-CATCCATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCATCCTGTCTCGTGGGCTCGG</t>
+    <t>R3006-ACCATCGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATCGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R3007-TAGGTCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R3007-GGAACGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACGTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R3008-TTCCTGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGATGGGTCTCGTGGGCTCGG</t>
+    <t>R3008-TCTAGTGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R3009-GAACTTGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTTGCTCGTCTCGTGGGCTCGG</t>
+    <t>R3009-GAAGGAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R3010-GTGACCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R3010-ACAACTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R3011-GTTGTGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGATCCGTCTCGTGGGCTCGG</t>
+    <t>R3011-TTGTGCTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGCTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R3012-AACGATGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGATGTGGGTCTCGTGGGCTCGG</t>
+    <t>R3012-CCACATGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACATGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R3013-TAGACACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACACTCAGTCTCGTGGGCTCGG</t>
+    <t>R3013-ACTTGGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R3014-TGTGGATGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGATGTCGTCTCGTGGGCTCGG</t>
+    <t>R3014-AAGCACCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R3015-CTAGTCAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCAAGCGTCTCGTGGGCTCGG</t>
+    <t>R3015-AACCTCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R3016-TGCAGACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGACATGGTCTCGTGGGCTCGG</t>
+    <t>R3016-ATCGTCGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTCGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R3017-ACTCTCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTCTACAGTCTCGTGGGCTCGG</t>
+    <t>R3017-TACTCAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R3018-ACTTCAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R3018-GATGTCGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTCGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R3019-GTCGTAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGTAGATGGTCTCGTGGGCTCGG</t>
+    <t>R3019-AAGCTGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R3020-GTTCTACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTACTGGGTCTCGTGGGCTCGG</t>
+    <t>R3020-TACGAGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R3021-GTTCTCTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCTCCTGTCTCGTGGGCTCGG</t>
+    <t>R3021-GAGATGAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGATGAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R3022-AGAGCTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTAGAAGTCTCGTGGGCTCGG</t>
+    <t>R3022-GTGTCAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R3023-TGGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTTGGTGAGTCTCGTGGGCTCGG</t>
+    <t>R3023-ACAACCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACCTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R3024-AACACGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACGAACGGTCTCGTGGGCTCGG</t>
+    <t>R3024-GTTCAAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCAAGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R3025-GTGAGACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGACTCTGTCTCGTGGGCTCGG</t>
+    <t>R3025-ACACCTACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCTACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R3026-ACTGTCGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTCGTAGGTCTCGTGGGCTCGG</t>
+    <t>R3026-CGACAAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACAAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R3027-AAGACTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R3027-ACCAAGCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAAGCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R3028-AGGACTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R3028-TCCTTCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R3029-CTGAGAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R3029-TGCACTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R3030-TTCTACGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTACGTGGGTCTCGTGGGCTCGG</t>
+    <t>R3030-TGAACCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R3031-TCAGAGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R3031-AGTCATGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCATGGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R3032-AGTGCATGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCATGTTGTCTCGTGGGCTCGG</t>
+    <t>R3032-TAGGAGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R3033-AGGTCTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTGATCGTCTCGTGGGCTCGG</t>
+    <t>R3033-GAACCATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCATCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R3034-CTCACACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACACCATGTCTCGTGGGCTCGG</t>
+    <t>R3034-CCAGGTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGGTACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R3035-TAGATGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATGGAGAGTCTCGTGGGCTCGG</t>
+    <t>R3035-GGATCCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R3036-TTGAGGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTCATGTCTCGTGGGCTCGG</t>
+    <t>R3036-GAAGTGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R3037-GGAACAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACAGACTGTCTCGTGGGCTCGG</t>
+    <t>R3037-TACTACGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTACGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R3038-CCAAGACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAAGACTTCGTCTCGTGGGCTCGG</t>
+    <t>R3038-ACATCCTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCCTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R3039-TAGCTCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCTAGAGTCTCGTGGGCTCGG</t>
+    <t>R3039-TGACCATCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCATCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R3040-CCTCTTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCTTGTTGGTCTCGTGGGCTCGG</t>
+    <t>R3040-TCTTGACTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGACTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R3041-TCTCCTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTACTCGTCTCGTGGGCTCGG</t>
+    <t>R3041-CGTTCTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTCTTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R3042-AAGCTCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCTCTCGTCTCGTGGGCTCGG</t>
+    <t>R3042-TCCTCCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R3043-GATCCTACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCTACTAGTCTCGTGGGCTCGG</t>
+    <t>R3043-AACTCAACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCAACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R3044-CTACCATGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCATGTCGTCTCGTGGGCTCGG</t>
+    <t>R3044-TCCAGTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R3045-TACCTCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTCATCTGTCTCGTGGGCTCGG</t>
+    <t>R3045-TCACATGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACATGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R3046-TGTGCAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGCAACGAGTCTCGTGGGCTCGG</t>
+    <t>R3046-TACCTCGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTCGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R3047-CTAGGACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGACTTGGTCTCGTGGGCTCGG</t>
+    <t>R3047-CAACGAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R3048-ACACAGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAGACCTGTCTCGTGGGCTCGG</t>
+    <t>R3048-AGACCATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCATGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R3049-ACGATGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATGTACCGTCTCGTGGGCTCGG</t>
+    <t>R3049-GAGCTCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCTCACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R3050-ACCATGCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATGCAACGTCTCGTGGGCTCGG</t>
+    <t>R3050-TAGACTACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACTACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R3051-CAACCACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCACCATGTCTCGTGGGCTCGG</t>
+    <t>R3051-CGTCACATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCACATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R3052-CCTAGAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGAACGAGTCTCGTGGGCTCGG</t>
+    <t>R3052-ACGTCCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCCTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R3053-ATGGTTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R3053-CTGTGTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTGTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R3054-GGACCTTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACCTTCTTGTCTCGTGGGCTCGG</t>
+    <t>R3054-TTGCTCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R3055-AGACTACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTACGAAGTCTCGTGGGCTCGG</t>
+    <t>R3055-TGGAACCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAACCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R3056-TTCCTGTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGTGTAGTCTCGTGGGCTCGG</t>
+    <t>R3056-GATCCAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCAAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R3057-GTGACACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACACCTAGTCTCGTGGGCTCGG</t>
+    <t>R3057-ATGTCCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCCATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R3058-AGAAGTGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTGACAGTCTCGTGGGCTCGG</t>
+    <t>R3058-AACACAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACAAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R3059-AGTTCGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R3059-TTGATGCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGATGCACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R3060-AGTAGCTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCTTGCGTCTCGTGGGCTCGG</t>
+    <t>R3060-GCTGATCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGATCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R3061-CTTCATCGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCATCGTGGTCTCGTGGGCTCGG</t>
+    <t>R3061-ACAGTACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R3062-ATCAGATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGATCAGGTCTCGTGGGCTCGG</t>
+    <t>R3062-AAGCACTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R3063-GGATCAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R3063-GAGTCTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R3064-TGCAGAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGAAGACGTCTCGTGGGCTCGG</t>
+    <t>R3064-ACCTCTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R3065-TCGTACGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACGATCGTCTCGTGGGCTCGG</t>
+    <t>R3065-AGCTACGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTACGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R3066-TTCCTTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R3066-TGCTGATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTGATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R3067-AGAAGTCCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTCCACGTCTCGTGGGCTCGG</t>
+    <t>R3067-TCTGATCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGATCCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R3068-GGTGAAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R3068-TGGACGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R3069-TCCAGTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGTGACTGTCTCGTGGGCTCGG</t>
+    <t>R3069-GACCTACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTACTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R3070-GATGTGCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTGCTGAGTCTCGTGGGCTCGG</t>
+    <t>R3070-TCTGTGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R3071-AGGATCTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATCTCCTGTCTCGTGGGCTCGG</t>
+    <t>R3071-TACACGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACGAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R3072-GGAACTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R3072-CTGCTACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCTACCTTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
